--- a/Fabien/illustration rk1.xlsx
+++ b/Fabien/illustration rk1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21315" windowHeight="9270"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="21315" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>t</t>
   </si>
@@ -362,7 +362,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -370,7 +370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f (dt=0,5)</c:v>
+                  <c:v>f theo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,115 +505,112 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.90483741803595952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.81873075307798182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0.74081822068171788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.67032004603563933</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.60653065971263342</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>0.54881163609402639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8125E-3</c:v>
+                  <c:v>0.49658530379140953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.90625E-3</c:v>
+                  <c:v>0.44932896411722162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.953125E-3</c:v>
+                  <c:v>0.40656965974059917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.765625E-4</c:v>
+                  <c:v>0.36787944117144239</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8828125E-4</c:v>
+                  <c:v>0.33287108369807961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.44140625E-4</c:v>
+                  <c:v>0.30119421191220214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.220703125E-4</c:v>
+                  <c:v>0.27253179303401259</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.103515625E-5</c:v>
+                  <c:v>0.24659696394160643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0517578125E-5</c:v>
+                  <c:v>0.22313016014842979</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.52587890625E-5</c:v>
+                  <c:v>0.20189651799465536</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.62939453125E-6</c:v>
+                  <c:v>0.18268352405273458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.814697265625E-6</c:v>
+                  <c:v>0.16529888822158645</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9073486328125E-6</c:v>
+                  <c:v>0.14956861922263498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.5367431640625E-7</c:v>
+                  <c:v>0.13533528323661262</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.76837158203125E-7</c:v>
+                  <c:v>0.12245642825298185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.384185791015625E-7</c:v>
+                  <c:v>0.11080315836233381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1920928955078125E-7</c:v>
+                  <c:v>0.10025884372280366</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9604644775390625E-8</c:v>
+                  <c:v>9.0717953289412429E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9802322387695313E-8</c:v>
+                  <c:v>8.2084998623898717E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4901161193847656E-8</c:v>
+                  <c:v>7.4273578214333807E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.4505805969238281E-9</c:v>
+                  <c:v>6.7205512739749687E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7252902984619141E-9</c:v>
+                  <c:v>6.0810062625217896E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.862645149230957E-9</c:v>
+                  <c:v>5.5023220056407161E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.3132257461547852E-10</c:v>
+                  <c:v>4.9787068367863875E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.6566128730773926E-10</c:v>
+                  <c:v>4.5049202393557745E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3283064365386963E-10</c:v>
+                  <c:v>4.0762203978366156E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1641532182693481E-10</c:v>
+                  <c:v>3.6883167401239945E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.8207660913467407E-11</c:v>
+                  <c:v>3.3373269960326024E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9103830456733704E-11</c:v>
+                  <c:v>3.0197383422318449E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4551915228366852E-11</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.1264199757917669E-2</c:v>
+                  <c:v>2.732372244729251E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,255 +618,64 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f theo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$39</c:f>
+              <c:f>Feuil1!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6000000000000019</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$F$2:$F$39</c:f>
+              <c:f>Feuil1!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90483741803595952</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81873075307798182</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74081822068171788</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67032004603563933</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60653065971263342</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54881163609402639</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49658530379140953</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44932896411722162</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40656965974059917</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36787944117144239</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33287108369807961</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.30119421191220214</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.27253179303401259</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.24659696394160643</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22313016014842979</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.20189651799465536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18268352405273458</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16529888822158645</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.14956861922263498</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.13533528323661262</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.12245642825298185</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.11080315836233381</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.10025884372280366</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.0717953289412429E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.2084998623898717E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.4273578214333807E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.7205512739749687E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.0810062625217896E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.5023220056407161E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.9787068367863875E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.5049202393557745E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.0762203978366156E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.6883167401239945E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.3373269960326024E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.0197383422318449E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.732372244729251E-2</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,11 +690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="63612416"/>
-        <c:axId val="45560960"/>
+        <c:axId val="64228352"/>
+        <c:axId val="64275200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63612416"/>
+        <c:axId val="64228352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,12 +704,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45560960"/>
+        <c:crossAx val="64275200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45560960"/>
+        <c:axId val="64275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63612416"/>
+        <c:crossAx val="64228352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -940,16 +746,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1258,15 +1064,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,23 +1082,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>0.1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>0.1</v>
-      </c>
-      <c r="H1">
+      <c r="J1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1303,20 +1112,23 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
         <f>EXP(-A2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>G$1+A2</f>
+        <f>D$1+A2</f>
         <v>0.1</v>
       </c>
       <c r="B3">
@@ -1324,25 +1136,29 @@
         <v>-0.9</v>
       </c>
       <c r="C3">
-        <f>C2+B2*G$1</f>
+        <f>C2+B2*D$1</f>
         <v>0.9</v>
       </c>
-      <c r="D3">
-        <f>-E3</f>
-        <v>-0.5</v>
-      </c>
       <c r="E3">
-        <f>E2+D2*H$1</f>
-        <v>0.5</v>
-      </c>
-      <c r="F3">
         <f>EXP(-A3)</f>
         <v>0.90483741803595952</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>F2+J$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f>-I3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I3">
+        <f>I2+H2*J$1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A37" si="1">G$1+A3</f>
+        <f>D$1+A3</f>
         <v>0.2</v>
       </c>
       <c r="B4">
@@ -1350,25 +1166,29 @@
         <v>-0.81</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C38" si="2">C3+B3*G$1</f>
+        <f>C3+B3*D$1</f>
         <v>0.81</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D24" si="3">-E4</f>
-        <v>-0.25</v>
-      </c>
       <c r="E4">
-        <f t="shared" ref="E4:E38" si="4">E3+D3*H$1</f>
-        <v>0.25</v>
-      </c>
-      <c r="F4">
         <f>EXP(-A4)</f>
         <v>0.81873075307798182</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>F3+J$1</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H24" si="1">-I4</f>
+        <v>-0.25</v>
+      </c>
+      <c r="I4">
+        <f>I3+H3*J$1</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f>D$1+A4</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="B5">
@@ -1376,25 +1196,29 @@
         <v>-0.72900000000000009</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f>C4+B4*D$1</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="3"/>
-        <v>-0.125</v>
-      </c>
       <c r="E5">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="F5">
         <f>EXP(-A5)</f>
         <v>0.74081822068171788</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>F4+J$1</f>
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-0.125</v>
+      </c>
+      <c r="I5">
+        <f>I4+H4*J$1</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f>D$1+A5</f>
         <v>0.4</v>
       </c>
       <c r="B6">
@@ -1402,25 +1226,29 @@
         <v>-0.65610000000000013</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f>C5+B5*D$1</f>
         <v>0.65610000000000013</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="3"/>
-        <v>-6.25E-2</v>
-      </c>
       <c r="E6">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F6">
         <f>EXP(-A6)</f>
         <v>0.67032004603563933</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>F5+J$1</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="I6">
+        <f>I5+H5*J$1</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f>D$1+A6</f>
         <v>0.5</v>
       </c>
       <c r="B7">
@@ -1428,25 +1256,29 @@
         <v>-0.59049000000000007</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f>C6+B6*D$1</f>
         <v>0.59049000000000007</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="3"/>
-        <v>-3.125E-2</v>
-      </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F7">
         <f>EXP(-A7)</f>
         <v>0.60653065971263342</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>F6+J$1</f>
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="I7">
+        <f>I6+H6*J$1</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f>D$1+A7</f>
         <v>0.6</v>
       </c>
       <c r="B8">
@@ -1454,25 +1286,29 @@
         <v>-0.53144100000000005</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f>C7+B7*D$1</f>
         <v>0.53144100000000005</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>-1.5625E-2</v>
-      </c>
       <c r="E8">
-        <f t="shared" si="4"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="F8">
         <f>EXP(-A8)</f>
         <v>0.54881163609402639</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>F7+J$1</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="I8">
+        <f>I7+H7*J$1</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f>D$1+A8</f>
         <v>0.7</v>
       </c>
       <c r="B9">
@@ -1480,25 +1316,25 @@
         <v>-0.47829690000000002</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f>C8+B8*D$1</f>
         <v>0.47829690000000002</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>-7.8125E-3</v>
-      </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="F9">
         <f>EXP(-A9)</f>
         <v>0.49658530379140953</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="I9">
+        <f>I8+H8*J$1</f>
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f>D$1+A9</f>
         <v>0.79999999999999993</v>
       </c>
       <c r="B10">
@@ -1506,25 +1342,25 @@
         <v>-0.43046720999999999</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f>C9+B9*D$1</f>
         <v>0.43046720999999999</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>-3.90625E-3</v>
-      </c>
       <c r="E10">
-        <f t="shared" si="4"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="F10">
         <f>EXP(-A10)</f>
         <v>0.44932896411722162</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="I10">
+        <f>I9+H9*J$1</f>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f>D$1+A10</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="B11">
@@ -1532,25 +1368,25 @@
         <v>-0.38742048899999998</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f>C10+B10*D$1</f>
         <v>0.38742048899999998</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
-        <v>-1.953125E-3</v>
-      </c>
       <c r="E11">
-        <f t="shared" si="4"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="F11">
         <f>EXP(-A11)</f>
         <v>0.40656965974059917</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="I11">
+        <f>I10+H10*J$1</f>
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f>D$1+A11</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="B12">
@@ -1558,25 +1394,25 @@
         <v>-0.34867844009999999</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f>C11+B11*D$1</f>
         <v>0.34867844009999999</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>-9.765625E-4</v>
-      </c>
       <c r="E12">
-        <f t="shared" si="4"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="F12">
         <f>EXP(-A12)</f>
         <v>0.36787944117144239</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="I12">
+        <f>I11+H11*J$1</f>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f>D$1+A12</f>
         <v>1.0999999999999999</v>
       </c>
       <c r="B13">
@@ -1584,25 +1420,25 @@
         <v>-0.31381059609</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f>C12+B12*D$1</f>
         <v>0.31381059609</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>-4.8828125E-4</v>
-      </c>
       <c r="E13">
-        <f t="shared" si="4"/>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="F13">
         <f>EXP(-A13)</f>
         <v>0.33287108369807961</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-4.8828125E-4</v>
+      </c>
+      <c r="I13">
+        <f>I12+H12*J$1</f>
+        <v>4.8828125E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f>D$1+A13</f>
         <v>1.2</v>
       </c>
       <c r="B14">
@@ -1610,25 +1446,25 @@
         <v>-0.282429536481</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f>C13+B13*D$1</f>
         <v>0.282429536481</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>-2.44140625E-4</v>
-      </c>
       <c r="E14">
-        <f t="shared" si="4"/>
-        <v>2.44140625E-4</v>
-      </c>
-      <c r="F14">
         <f>EXP(-A14)</f>
         <v>0.30119421191220214</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-2.44140625E-4</v>
+      </c>
+      <c r="I14">
+        <f>I13+H13*J$1</f>
+        <v>2.44140625E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f>D$1+A14</f>
         <v>1.3</v>
       </c>
       <c r="B15">
@@ -1636,25 +1472,25 @@
         <v>-0.25418658283290002</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f>C14+B14*D$1</f>
         <v>0.25418658283290002</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>-1.220703125E-4</v>
-      </c>
       <c r="E15">
-        <f t="shared" si="4"/>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="F15">
         <f>EXP(-A15)</f>
         <v>0.27253179303401259</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-1.220703125E-4</v>
+      </c>
+      <c r="I15">
+        <f>I14+H14*J$1</f>
+        <v>1.220703125E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f>D$1+A15</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="B16">
@@ -1662,25 +1498,25 @@
         <v>-0.22876792454961001</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f>C15+B15*D$1</f>
         <v>0.22876792454961001</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>-6.103515625E-5</v>
-      </c>
       <c r="E16">
-        <f t="shared" si="4"/>
-        <v>6.103515625E-5</v>
-      </c>
-      <c r="F16">
         <f>EXP(-A16)</f>
         <v>0.24659696394160643</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-6.103515625E-5</v>
+      </c>
+      <c r="I16">
+        <f>I15+H15*J$1</f>
+        <v>6.103515625E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f>D$1+A16</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="B17">
@@ -1688,25 +1524,25 @@
         <v>-0.20589113209464902</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f>C16+B16*D$1</f>
         <v>0.20589113209464902</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>-3.0517578125E-5</v>
-      </c>
       <c r="E17">
-        <f t="shared" si="4"/>
-        <v>3.0517578125E-5</v>
-      </c>
-      <c r="F17">
         <f>EXP(-A17)</f>
         <v>0.22313016014842979</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="I17">
+        <f>I16+H16*J$1</f>
+        <v>3.0517578125E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f>D$1+A17</f>
         <v>1.6000000000000003</v>
       </c>
       <c r="B18">
@@ -1714,25 +1550,25 @@
         <v>-0.18530201888518411</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f>C17+B17*D$1</f>
         <v>0.18530201888518411</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>-1.52587890625E-5</v>
-      </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>1.52587890625E-5</v>
-      </c>
-      <c r="F18">
         <f>EXP(-A18)</f>
         <v>0.20189651799465536</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-1.52587890625E-5</v>
+      </c>
+      <c r="I18">
+        <f>I17+H17*J$1</f>
+        <v>1.52587890625E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f>D$1+A18</f>
         <v>1.7000000000000004</v>
       </c>
       <c r="B19">
@@ -1740,25 +1576,25 @@
         <v>-0.16677181699666568</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f>C18+B18*D$1</f>
         <v>0.16677181699666568</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>-7.62939453125E-6</v>
-      </c>
       <c r="E19">
-        <f t="shared" si="4"/>
-        <v>7.62939453125E-6</v>
-      </c>
-      <c r="F19">
         <f>EXP(-A19)</f>
         <v>0.18268352405273458</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-7.62939453125E-6</v>
+      </c>
+      <c r="I19">
+        <f>I18+H18*J$1</f>
+        <v>7.62939453125E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f>D$1+A19</f>
         <v>1.8000000000000005</v>
       </c>
       <c r="B20">
@@ -1766,25 +1602,25 @@
         <v>-0.15009463529699912</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f>C19+B19*D$1</f>
         <v>0.15009463529699912</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>-3.814697265625E-6</v>
-      </c>
       <c r="E20">
-        <f t="shared" si="4"/>
-        <v>3.814697265625E-6</v>
-      </c>
-      <c r="F20">
         <f>EXP(-A20)</f>
         <v>0.16529888822158645</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-3.814697265625E-6</v>
+      </c>
+      <c r="I20">
+        <f>I19+H19*J$1</f>
+        <v>3.814697265625E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f>D$1+A20</f>
         <v>1.9000000000000006</v>
       </c>
       <c r="B21">
@@ -1792,25 +1628,25 @@
         <v>-0.1350851717672992</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f>C20+B20*D$1</f>
         <v>0.1350851717672992</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>-1.9073486328125E-6</v>
-      </c>
       <c r="E21">
-        <f t="shared" si="4"/>
-        <v>1.9073486328125E-6</v>
-      </c>
-      <c r="F21">
         <f>EXP(-A21)</f>
         <v>0.14956861922263498</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>-1.9073486328125E-6</v>
+      </c>
+      <c r="I21">
+        <f>I20+H20*J$1</f>
+        <v>1.9073486328125E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f>D$1+A21</f>
         <v>2.0000000000000004</v>
       </c>
       <c r="B22">
@@ -1818,25 +1654,25 @@
         <v>-0.12157665459056928</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f>C21+B21*D$1</f>
         <v>0.12157665459056928</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>-9.5367431640625E-7</v>
-      </c>
       <c r="E22">
-        <f t="shared" si="4"/>
-        <v>9.5367431640625E-7</v>
-      </c>
-      <c r="F22">
         <f>EXP(-A22)</f>
         <v>0.13533528323661262</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-9.5367431640625E-7</v>
+      </c>
+      <c r="I22">
+        <f>I21+H21*J$1</f>
+        <v>9.5367431640625E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f>D$1+A22</f>
         <v>2.1000000000000005</v>
       </c>
       <c r="B23">
@@ -1844,25 +1680,25 @@
         <v>-0.10941898913151235</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f>C22+B22*D$1</f>
         <v>0.10941898913151235</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>-4.76837158203125E-7</v>
-      </c>
       <c r="E23">
-        <f t="shared" si="4"/>
-        <v>4.76837158203125E-7</v>
-      </c>
-      <c r="F23">
         <f>EXP(-A23)</f>
         <v>0.12245642825298185</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-4.76837158203125E-7</v>
+      </c>
+      <c r="I23">
+        <f>I22+H22*J$1</f>
+        <v>4.76837158203125E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f>D$1+A23</f>
         <v>2.2000000000000006</v>
       </c>
       <c r="B24">
@@ -1870,25 +1706,25 @@
         <v>-9.847709021836111E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f>C23+B23*D$1</f>
         <v>9.847709021836111E-2</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>-2.384185791015625E-7</v>
-      </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>2.384185791015625E-7</v>
-      </c>
-      <c r="F24">
         <f>EXP(-A24)</f>
         <v>0.11080315836233381</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>-2.384185791015625E-7</v>
+      </c>
+      <c r="I24">
+        <f>I23+H23*J$1</f>
+        <v>2.384185791015625E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f>D$1+A24</f>
         <v>2.3000000000000007</v>
       </c>
       <c r="B25">
@@ -1896,25 +1732,25 @@
         <v>-8.8629381196524998E-2</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f>C24+B24*D$1</f>
         <v>8.8629381196524998E-2</v>
       </c>
-      <c r="D25">
-        <f t="shared" ref="D4:D38" si="5">-E25</f>
-        <v>-1.1920928955078125E-7</v>
-      </c>
       <c r="E25">
-        <f t="shared" si="4"/>
-        <v>1.1920928955078125E-7</v>
-      </c>
-      <c r="F25">
         <f>EXP(-A25)</f>
         <v>0.10025884372280366</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" ref="H25:H38" si="2">-I25</f>
+        <v>-1.1920928955078125E-7</v>
+      </c>
+      <c r="I25">
+        <f>I24+H24*J$1</f>
+        <v>1.1920928955078125E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f>D$1+A25</f>
         <v>2.4000000000000008</v>
       </c>
       <c r="B26">
@@ -1922,25 +1758,25 @@
         <v>-7.9766443076872501E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f>C25+B25*D$1</f>
         <v>7.9766443076872501E-2</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="5"/>
-        <v>-5.9604644775390625E-8</v>
-      </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>5.9604644775390625E-8</v>
-      </c>
-      <c r="F26">
         <f>EXP(-A26)</f>
         <v>9.0717953289412429E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-5.9604644775390625E-8</v>
+      </c>
+      <c r="I26">
+        <f>I25+H25*J$1</f>
+        <v>5.9604644775390625E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f>D$1+A26</f>
         <v>2.5000000000000009</v>
       </c>
       <c r="B27">
@@ -1948,25 +1784,25 @@
         <v>-7.1789798769185245E-2</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f>C26+B26*D$1</f>
         <v>7.1789798769185245E-2</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="5"/>
-        <v>-2.9802322387695313E-8</v>
-      </c>
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>2.9802322387695313E-8</v>
-      </c>
-      <c r="F27">
         <f>EXP(-A27)</f>
         <v>8.2084998623898717E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-2.9802322387695313E-8</v>
+      </c>
+      <c r="I27">
+        <f>I26+H26*J$1</f>
+        <v>2.9802322387695313E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f>D$1+A27</f>
         <v>2.600000000000001</v>
       </c>
       <c r="B28">
@@ -1974,25 +1810,25 @@
         <v>-6.4610818892266719E-2</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f>C27+B27*D$1</f>
         <v>6.4610818892266719E-2</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
-        <v>-1.4901161193847656E-8</v>
-      </c>
       <c r="E28">
-        <f t="shared" si="4"/>
-        <v>1.4901161193847656E-8</v>
-      </c>
-      <c r="F28">
         <f>EXP(-A28)</f>
         <v>7.4273578214333807E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-1.4901161193847656E-8</v>
+      </c>
+      <c r="I28">
+        <f>I27+H27*J$1</f>
+        <v>1.4901161193847656E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f>D$1+A28</f>
         <v>2.7000000000000011</v>
       </c>
       <c r="B29">
@@ -2000,25 +1836,25 @@
         <v>-5.8149737003040047E-2</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f>C28+B28*D$1</f>
         <v>5.8149737003040047E-2</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="5"/>
-        <v>-7.4505805969238281E-9</v>
-      </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>7.4505805969238281E-9</v>
-      </c>
-      <c r="F29">
         <f>EXP(-A29)</f>
         <v>6.7205512739749687E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-7.4505805969238281E-9</v>
+      </c>
+      <c r="I29">
+        <f>I28+H28*J$1</f>
+        <v>7.4505805969238281E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f>D$1+A29</f>
         <v>2.8000000000000012</v>
       </c>
       <c r="B30">
@@ -2026,25 +1862,25 @@
         <v>-5.2334763302736044E-2</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f>C29+B29*D$1</f>
         <v>5.2334763302736044E-2</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="5"/>
-        <v>-3.7252902984619141E-9</v>
-      </c>
       <c r="E30">
-        <f t="shared" si="4"/>
-        <v>3.7252902984619141E-9</v>
-      </c>
-      <c r="F30">
         <f>EXP(-A30)</f>
         <v>6.0810062625217896E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-3.7252902984619141E-9</v>
+      </c>
+      <c r="I30">
+        <f>I29+H29*J$1</f>
+        <v>3.7252902984619141E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f>D$1+A30</f>
         <v>2.9000000000000012</v>
       </c>
       <c r="B31">
@@ -2052,25 +1888,25 @@
         <v>-4.7101286972462436E-2</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f>C30+B30*D$1</f>
         <v>4.7101286972462436E-2</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
-        <v>-1.862645149230957E-9</v>
-      </c>
       <c r="E31">
-        <f t="shared" si="4"/>
-        <v>1.862645149230957E-9</v>
-      </c>
-      <c r="F31">
         <f>EXP(-A31)</f>
         <v>5.5023220056407161E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>-1.862645149230957E-9</v>
+      </c>
+      <c r="I31">
+        <f>I30+H30*J$1</f>
+        <v>1.862645149230957E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f>D$1+A31</f>
         <v>3.0000000000000013</v>
       </c>
       <c r="B32">
@@ -2078,25 +1914,25 @@
         <v>-4.2391158275216195E-2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f>C31+B31*D$1</f>
         <v>4.2391158275216195E-2</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
-        <v>-9.3132257461547852E-10</v>
-      </c>
       <c r="E32">
-        <f t="shared" si="4"/>
-        <v>9.3132257461547852E-10</v>
-      </c>
-      <c r="F32">
         <f>EXP(-A32)</f>
         <v>4.9787068367863875E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>-9.3132257461547852E-10</v>
+      </c>
+      <c r="I32">
+        <f>I31+H31*J$1</f>
+        <v>9.3132257461547852E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f>D$1+A32</f>
         <v>3.1000000000000014</v>
       </c>
       <c r="B33">
@@ -2104,25 +1940,25 @@
         <v>-3.8152042447694573E-2</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f>C32+B32*D$1</f>
         <v>3.8152042447694573E-2</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
-        <v>-4.6566128730773926E-10</v>
-      </c>
       <c r="E33">
-        <f t="shared" si="4"/>
-        <v>4.6566128730773926E-10</v>
-      </c>
-      <c r="F33">
         <f>EXP(-A33)</f>
         <v>4.5049202393557745E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>-4.6566128730773926E-10</v>
+      </c>
+      <c r="I33">
+        <f>I32+H32*J$1</f>
+        <v>4.6566128730773926E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f>D$1+A33</f>
         <v>3.2000000000000015</v>
       </c>
       <c r="B34">
@@ -2130,25 +1966,25 @@
         <v>-3.4336838202925116E-2</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f>C33+B33*D$1</f>
         <v>3.4336838202925116E-2</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="5"/>
-        <v>-2.3283064365386963E-10</v>
-      </c>
       <c r="E34">
-        <f t="shared" si="4"/>
-        <v>2.3283064365386963E-10</v>
-      </c>
-      <c r="F34">
         <f>EXP(-A34)</f>
         <v>4.0762203978366156E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>-2.3283064365386963E-10</v>
+      </c>
+      <c r="I34">
+        <f>I33+H33*J$1</f>
+        <v>2.3283064365386963E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f>D$1+A34</f>
         <v>3.3000000000000016</v>
       </c>
       <c r="B35">
@@ -2156,25 +1992,25 @@
         <v>-3.0903154382632605E-2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f>C34+B34*D$1</f>
         <v>3.0903154382632605E-2</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="5"/>
-        <v>-1.1641532182693481E-10</v>
-      </c>
       <c r="E35">
-        <f t="shared" si="4"/>
-        <v>1.1641532182693481E-10</v>
-      </c>
-      <c r="F35">
         <f>EXP(-A35)</f>
         <v>3.6883167401239945E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>-1.1641532182693481E-10</v>
+      </c>
+      <c r="I35">
+        <f>I34+H34*J$1</f>
+        <v>1.1641532182693481E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f>D$1+A35</f>
         <v>3.4000000000000017</v>
       </c>
       <c r="B36">
@@ -2182,25 +2018,25 @@
         <v>-2.7812838944369346E-2</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f>C35+B35*D$1</f>
         <v>2.7812838944369346E-2</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="5"/>
-        <v>-5.8207660913467407E-11</v>
-      </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>5.8207660913467407E-11</v>
-      </c>
-      <c r="F36">
         <f>EXP(-A36)</f>
         <v>3.3373269960326024E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>-5.8207660913467407E-11</v>
+      </c>
+      <c r="I36">
+        <f>I35+H35*J$1</f>
+        <v>5.8207660913467407E-11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f>D$1+A36</f>
         <v>3.5000000000000018</v>
       </c>
       <c r="B37">
@@ -2208,25 +2044,25 @@
         <v>-2.5031555049932409E-2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f>C36+B36*D$1</f>
         <v>2.5031555049932409E-2</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="5"/>
-        <v>-2.9103830456733704E-11</v>
-      </c>
       <c r="E37">
-        <f t="shared" si="4"/>
-        <v>2.9103830456733704E-11</v>
-      </c>
-      <c r="F37">
         <f>EXP(-A37)</f>
         <v>3.0197383422318449E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>-2.9103830456733704E-11</v>
+      </c>
+      <c r="I37">
+        <f>I36+H36*J$1</f>
+        <v>2.9103830456733704E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>G$1+A37</f>
+        <f>D$1+A37</f>
         <v>3.6000000000000019</v>
       </c>
       <c r="B38">
@@ -2234,25 +2070,25 @@
         <v>-2.2528399544939168E-2</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f>C37+B37*D$1</f>
         <v>2.2528399544939168E-2</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="5"/>
-        <v>-1.4551915228366852E-11</v>
-      </c>
       <c r="E38">
-        <f t="shared" si="4"/>
-        <v>1.4551915228366852E-11</v>
-      </c>
-      <c r="F38">
         <f>EXP(-A38)</f>
         <v>2.732372244729251E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <f t="shared" ref="E4:E39" si="6">E38+B38*H$1</f>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>-1.4551915228366852E-11</v>
+      </c>
+      <c r="I38">
+        <f>I37+H37*J$1</f>
+        <v>1.4551915228366852E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f>I38+B38*J$1</f>
         <v>-1.1264199757917669E-2</v>
       </c>
     </row>

--- a/Fabien/illustration rk1.xlsx
+++ b/Fabien/illustration rk1.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -690,37 +691,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64228352"/>
-        <c:axId val="64275200"/>
+        <c:axId val="45454464"/>
+        <c:axId val="45456384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64228352"/>
+        <c:axId val="45454464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>t (années)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64275200"/>
+        <c:crossAx val="45456384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64275200"/>
+        <c:axId val="45456384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>f</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64228352"/>
+        <c:crossAx val="45454464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1113,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>EXP(-A2)</f>
+        <f t="shared" ref="E2:E38" si="0">EXP(-A2)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -1128,23 +1167,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>D$1+A2</f>
+        <f t="shared" ref="A3:A38" si="1">D$1+A2</f>
         <v>0.1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B38" si="0">-C3</f>
+        <f t="shared" ref="B3:B38" si="2">-C3</f>
         <v>-0.9</v>
       </c>
       <c r="C3">
-        <f>C2+B2*D$1</f>
+        <f t="shared" ref="C3:C38" si="3">C2+B2*D$1</f>
         <v>0.9</v>
       </c>
       <c r="E3">
-        <f>EXP(-A3)</f>
+        <f t="shared" si="0"/>
         <v>0.90483741803595952</v>
       </c>
       <c r="F3">
-        <f>F2+J$1</f>
+        <f t="shared" ref="F3:F8" si="4">F2+J$1</f>
         <v>0.5</v>
       </c>
       <c r="H3">
@@ -1152,937 +1191,937 @@
         <v>-0.5</v>
       </c>
       <c r="I3">
-        <f>I2+H2*J$1</f>
+        <f t="shared" ref="I3:I38" si="5">I2+H2*J$1</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>D$1+A3</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.81</v>
       </c>
       <c r="C4">
-        <f>C3+B3*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.81</v>
       </c>
       <c r="E4">
-        <f>EXP(-A4)</f>
+        <f t="shared" si="0"/>
         <v>0.81873075307798182</v>
       </c>
       <c r="F4">
-        <f>F3+J$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H24" si="1">-I4</f>
+        <f t="shared" ref="H4:H24" si="6">-I4</f>
         <v>-0.25</v>
       </c>
       <c r="I4">
-        <f>I3+H3*J$1</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>D$1+A4</f>
+        <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.72900000000000009</v>
       </c>
       <c r="C5">
-        <f>C4+B4*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.72900000000000009</v>
       </c>
       <c r="E5">
-        <f>EXP(-A5)</f>
+        <f t="shared" si="0"/>
         <v>0.74081822068171788</v>
       </c>
       <c r="F5">
-        <f>F4+J$1</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-0.125</v>
       </c>
       <c r="I5">
-        <f>I4+H4*J$1</f>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>D$1+A5</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.65610000000000013</v>
       </c>
       <c r="C6">
-        <f>C5+B5*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.65610000000000013</v>
       </c>
       <c r="E6">
-        <f>EXP(-A6)</f>
+        <f t="shared" si="0"/>
         <v>0.67032004603563933</v>
       </c>
       <c r="F6">
-        <f>F5+J$1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-6.25E-2</v>
       </c>
       <c r="I6">
-        <f>I5+H5*J$1</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>D$1+A6</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.59049000000000007</v>
       </c>
       <c r="C7">
-        <f>C6+B6*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.59049000000000007</v>
       </c>
       <c r="E7">
-        <f>EXP(-A7)</f>
+        <f t="shared" si="0"/>
         <v>0.60653065971263342</v>
       </c>
       <c r="F7">
-        <f>F6+J$1</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-3.125E-2</v>
       </c>
       <c r="I7">
-        <f>I6+H6*J$1</f>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>D$1+A7</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.53144100000000005</v>
       </c>
       <c r="C8">
-        <f>C7+B7*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.53144100000000005</v>
       </c>
       <c r="E8">
-        <f>EXP(-A8)</f>
+        <f t="shared" si="0"/>
         <v>0.54881163609402639</v>
       </c>
       <c r="F8">
-        <f>F7+J$1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-1.5625E-2</v>
       </c>
       <c r="I8">
-        <f>I7+H7*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>D$1+A8</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.47829690000000002</v>
       </c>
       <c r="C9">
-        <f>C8+B8*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.47829690000000002</v>
       </c>
       <c r="E9">
-        <f>EXP(-A9)</f>
+        <f t="shared" si="0"/>
         <v>0.49658530379140953</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-7.8125E-3</v>
       </c>
       <c r="I9">
-        <f>I8+H8*J$1</f>
+        <f t="shared" si="5"/>
         <v>7.8125E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>D$1+A9</f>
+        <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.43046720999999999</v>
       </c>
       <c r="C10">
-        <f>C9+B9*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.43046720999999999</v>
       </c>
       <c r="E10">
-        <f>EXP(-A10)</f>
+        <f t="shared" si="0"/>
         <v>0.44932896411722162</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-3.90625E-3</v>
       </c>
       <c r="I10">
-        <f>I9+H9*J$1</f>
+        <f t="shared" si="5"/>
         <v>3.90625E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>D$1+A10</f>
+        <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.38742048899999998</v>
       </c>
       <c r="C11">
-        <f>C10+B10*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.38742048899999998</v>
       </c>
       <c r="E11">
-        <f>EXP(-A11)</f>
+        <f t="shared" si="0"/>
         <v>0.40656965974059917</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="I11">
-        <f>I10+H10*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.953125E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>D$1+A11</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.34867844009999999</v>
       </c>
       <c r="C12">
-        <f>C11+B11*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.34867844009999999</v>
       </c>
       <c r="E12">
-        <f>EXP(-A12)</f>
+        <f t="shared" si="0"/>
         <v>0.36787944117144239</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-9.765625E-4</v>
       </c>
       <c r="I12">
-        <f>I11+H11*J$1</f>
+        <f t="shared" si="5"/>
         <v>9.765625E-4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>D$1+A12</f>
+        <f t="shared" si="1"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.31381059609</v>
       </c>
       <c r="C13">
-        <f>C12+B12*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.31381059609</v>
       </c>
       <c r="E13">
-        <f>EXP(-A13)</f>
+        <f t="shared" si="0"/>
         <v>0.33287108369807961</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-4.8828125E-4</v>
       </c>
       <c r="I13">
-        <f>I12+H12*J$1</f>
+        <f t="shared" si="5"/>
         <v>4.8828125E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>D$1+A13</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.282429536481</v>
       </c>
       <c r="C14">
-        <f>C13+B13*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.282429536481</v>
       </c>
       <c r="E14">
-        <f>EXP(-A14)</f>
+        <f t="shared" si="0"/>
         <v>0.30119421191220214</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-2.44140625E-4</v>
       </c>
       <c r="I14">
-        <f>I13+H13*J$1</f>
+        <f t="shared" si="5"/>
         <v>2.44140625E-4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>D$1+A14</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.25418658283290002</v>
       </c>
       <c r="C15">
-        <f>C14+B14*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.25418658283290002</v>
       </c>
       <c r="E15">
-        <f>EXP(-A15)</f>
+        <f t="shared" si="0"/>
         <v>0.27253179303401259</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-1.220703125E-4</v>
       </c>
       <c r="I15">
-        <f>I14+H14*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.220703125E-4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>D$1+A15</f>
+        <f t="shared" si="1"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.22876792454961001</v>
       </c>
       <c r="C16">
-        <f>C15+B15*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.22876792454961001</v>
       </c>
       <c r="E16">
-        <f>EXP(-A16)</f>
+        <f t="shared" si="0"/>
         <v>0.24659696394160643</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-6.103515625E-5</v>
       </c>
       <c r="I16">
-        <f>I15+H15*J$1</f>
+        <f t="shared" si="5"/>
         <v>6.103515625E-5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>D$1+A16</f>
+        <f t="shared" si="1"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.20589113209464902</v>
       </c>
       <c r="C17">
-        <f>C16+B16*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.20589113209464902</v>
       </c>
       <c r="E17">
-        <f>EXP(-A17)</f>
+        <f t="shared" si="0"/>
         <v>0.22313016014842979</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-3.0517578125E-5</v>
       </c>
       <c r="I17">
-        <f>I16+H16*J$1</f>
+        <f t="shared" si="5"/>
         <v>3.0517578125E-5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>D$1+A17</f>
+        <f t="shared" si="1"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.18530201888518411</v>
       </c>
       <c r="C18">
-        <f>C17+B17*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.18530201888518411</v>
       </c>
       <c r="E18">
-        <f>EXP(-A18)</f>
+        <f t="shared" si="0"/>
         <v>0.20189651799465536</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-1.52587890625E-5</v>
       </c>
       <c r="I18">
-        <f>I17+H17*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.52587890625E-5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>D$1+A18</f>
+        <f t="shared" si="1"/>
         <v>1.7000000000000004</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.16677181699666568</v>
       </c>
       <c r="C19">
-        <f>C18+B18*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.16677181699666568</v>
       </c>
       <c r="E19">
-        <f>EXP(-A19)</f>
+        <f t="shared" si="0"/>
         <v>0.18268352405273458</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-7.62939453125E-6</v>
       </c>
       <c r="I19">
-        <f>I18+H18*J$1</f>
+        <f t="shared" si="5"/>
         <v>7.62939453125E-6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>D$1+A19</f>
+        <f t="shared" si="1"/>
         <v>1.8000000000000005</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.15009463529699912</v>
       </c>
       <c r="C20">
-        <f>C19+B19*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.15009463529699912</v>
       </c>
       <c r="E20">
-        <f>EXP(-A20)</f>
+        <f t="shared" si="0"/>
         <v>0.16529888822158645</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-3.814697265625E-6</v>
       </c>
       <c r="I20">
-        <f>I19+H19*J$1</f>
+        <f t="shared" si="5"/>
         <v>3.814697265625E-6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>D$1+A20</f>
+        <f t="shared" si="1"/>
         <v>1.9000000000000006</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.1350851717672992</v>
       </c>
       <c r="C21">
-        <f>C20+B20*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.1350851717672992</v>
       </c>
       <c r="E21">
-        <f>EXP(-A21)</f>
+        <f t="shared" si="0"/>
         <v>0.14956861922263498</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-1.9073486328125E-6</v>
       </c>
       <c r="I21">
-        <f>I20+H20*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.9073486328125E-6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>D$1+A21</f>
+        <f t="shared" si="1"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.12157665459056928</v>
       </c>
       <c r="C22">
-        <f>C21+B21*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.12157665459056928</v>
       </c>
       <c r="E22">
-        <f>EXP(-A22)</f>
+        <f t="shared" si="0"/>
         <v>0.13533528323661262</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-9.5367431640625E-7</v>
       </c>
       <c r="I22">
-        <f>I21+H21*J$1</f>
+        <f t="shared" si="5"/>
         <v>9.5367431640625E-7</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>D$1+A22</f>
+        <f t="shared" si="1"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.10941898913151235</v>
       </c>
       <c r="C23">
-        <f>C22+B22*D$1</f>
+        <f t="shared" si="3"/>
         <v>0.10941898913151235</v>
       </c>
       <c r="E23">
-        <f>EXP(-A23)</f>
+        <f t="shared" si="0"/>
         <v>0.12245642825298185</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-4.76837158203125E-7</v>
       </c>
       <c r="I23">
-        <f>I22+H22*J$1</f>
+        <f t="shared" si="5"/>
         <v>4.76837158203125E-7</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>D$1+A23</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.847709021836111E-2</v>
       </c>
       <c r="C24">
-        <f>C23+B23*D$1</f>
+        <f t="shared" si="3"/>
         <v>9.847709021836111E-2</v>
       </c>
       <c r="E24">
-        <f>EXP(-A24)</f>
+        <f t="shared" si="0"/>
         <v>0.11080315836233381</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-2.384185791015625E-7</v>
       </c>
       <c r="I24">
-        <f>I23+H23*J$1</f>
+        <f t="shared" si="5"/>
         <v>2.384185791015625E-7</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>D$1+A24</f>
+        <f t="shared" si="1"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.8629381196524998E-2</v>
       </c>
       <c r="C25">
-        <f>C24+B24*D$1</f>
+        <f t="shared" si="3"/>
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="E25">
-        <f>EXP(-A25)</f>
+        <f t="shared" si="0"/>
         <v>0.10025884372280366</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H38" si="2">-I25</f>
+        <f t="shared" ref="H25:H38" si="7">-I25</f>
         <v>-1.1920928955078125E-7</v>
       </c>
       <c r="I25">
-        <f>I24+H24*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.1920928955078125E-7</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>D$1+A25</f>
+        <f t="shared" si="1"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.9766443076872501E-2</v>
       </c>
       <c r="C26">
-        <f>C25+B25*D$1</f>
+        <f t="shared" si="3"/>
         <v>7.9766443076872501E-2</v>
       </c>
       <c r="E26">
-        <f>EXP(-A26)</f>
+        <f t="shared" si="0"/>
         <v>9.0717953289412429E-2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-5.9604644775390625E-8</v>
       </c>
       <c r="I26">
-        <f>I25+H25*J$1</f>
+        <f t="shared" si="5"/>
         <v>5.9604644775390625E-8</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>D$1+A26</f>
+        <f t="shared" si="1"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.1789798769185245E-2</v>
       </c>
       <c r="C27">
-        <f>C26+B26*D$1</f>
+        <f t="shared" si="3"/>
         <v>7.1789798769185245E-2</v>
       </c>
       <c r="E27">
-        <f>EXP(-A27)</f>
+        <f t="shared" si="0"/>
         <v>8.2084998623898717E-2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2.9802322387695313E-8</v>
       </c>
       <c r="I27">
-        <f>I26+H26*J$1</f>
+        <f t="shared" si="5"/>
         <v>2.9802322387695313E-8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>D$1+A27</f>
+        <f t="shared" si="1"/>
         <v>2.600000000000001</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.4610818892266719E-2</v>
       </c>
       <c r="C28">
-        <f>C27+B27*D$1</f>
+        <f t="shared" si="3"/>
         <v>6.4610818892266719E-2</v>
       </c>
       <c r="E28">
-        <f>EXP(-A28)</f>
+        <f t="shared" si="0"/>
         <v>7.4273578214333807E-2</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1.4901161193847656E-8</v>
       </c>
       <c r="I28">
-        <f>I27+H27*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.4901161193847656E-8</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>D$1+A28</f>
+        <f t="shared" si="1"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.8149737003040047E-2</v>
       </c>
       <c r="C29">
-        <f>C28+B28*D$1</f>
+        <f t="shared" si="3"/>
         <v>5.8149737003040047E-2</v>
       </c>
       <c r="E29">
-        <f>EXP(-A29)</f>
+        <f t="shared" si="0"/>
         <v>6.7205512739749687E-2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-7.4505805969238281E-9</v>
       </c>
       <c r="I29">
-        <f>I28+H28*J$1</f>
+        <f t="shared" si="5"/>
         <v>7.4505805969238281E-9</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>D$1+A29</f>
+        <f t="shared" si="1"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.2334763302736044E-2</v>
       </c>
       <c r="C30">
-        <f>C29+B29*D$1</f>
+        <f t="shared" si="3"/>
         <v>5.2334763302736044E-2</v>
       </c>
       <c r="E30">
-        <f>EXP(-A30)</f>
+        <f t="shared" si="0"/>
         <v>6.0810062625217896E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-3.7252902984619141E-9</v>
       </c>
       <c r="I30">
-        <f>I29+H29*J$1</f>
+        <f t="shared" si="5"/>
         <v>3.7252902984619141E-9</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>D$1+A30</f>
+        <f t="shared" si="1"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.7101286972462436E-2</v>
       </c>
       <c r="C31">
-        <f>C30+B30*D$1</f>
+        <f t="shared" si="3"/>
         <v>4.7101286972462436E-2</v>
       </c>
       <c r="E31">
-        <f>EXP(-A31)</f>
+        <f t="shared" si="0"/>
         <v>5.5023220056407161E-2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1.862645149230957E-9</v>
       </c>
       <c r="I31">
-        <f>I30+H30*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.862645149230957E-9</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>D$1+A31</f>
+        <f t="shared" si="1"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.2391158275216195E-2</v>
       </c>
       <c r="C32">
-        <f>C31+B31*D$1</f>
+        <f t="shared" si="3"/>
         <v>4.2391158275216195E-2</v>
       </c>
       <c r="E32">
-        <f>EXP(-A32)</f>
+        <f t="shared" si="0"/>
         <v>4.9787068367863875E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-9.3132257461547852E-10</v>
       </c>
       <c r="I32">
-        <f>I31+H31*J$1</f>
+        <f t="shared" si="5"/>
         <v>9.3132257461547852E-10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>D$1+A32</f>
+        <f t="shared" si="1"/>
         <v>3.1000000000000014</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.8152042447694573E-2</v>
       </c>
       <c r="C33">
-        <f>C32+B32*D$1</f>
+        <f t="shared" si="3"/>
         <v>3.8152042447694573E-2</v>
       </c>
       <c r="E33">
-        <f>EXP(-A33)</f>
+        <f t="shared" si="0"/>
         <v>4.5049202393557745E-2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-4.6566128730773926E-10</v>
       </c>
       <c r="I33">
-        <f>I32+H32*J$1</f>
+        <f t="shared" si="5"/>
         <v>4.6566128730773926E-10</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>D$1+A33</f>
+        <f t="shared" si="1"/>
         <v>3.2000000000000015</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.4336838202925116E-2</v>
       </c>
       <c r="C34">
-        <f>C33+B33*D$1</f>
+        <f t="shared" si="3"/>
         <v>3.4336838202925116E-2</v>
       </c>
       <c r="E34">
-        <f>EXP(-A34)</f>
+        <f t="shared" si="0"/>
         <v>4.0762203978366156E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2.3283064365386963E-10</v>
       </c>
       <c r="I34">
-        <f>I33+H33*J$1</f>
+        <f t="shared" si="5"/>
         <v>2.3283064365386963E-10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>D$1+A34</f>
+        <f t="shared" si="1"/>
         <v>3.3000000000000016</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.0903154382632605E-2</v>
       </c>
       <c r="C35">
-        <f>C34+B34*D$1</f>
+        <f t="shared" si="3"/>
         <v>3.0903154382632605E-2</v>
       </c>
       <c r="E35">
-        <f>EXP(-A35)</f>
+        <f t="shared" si="0"/>
         <v>3.6883167401239945E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1.1641532182693481E-10</v>
       </c>
       <c r="I35">
-        <f>I34+H34*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.1641532182693481E-10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>D$1+A35</f>
+        <f t="shared" si="1"/>
         <v>3.4000000000000017</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.7812838944369346E-2</v>
       </c>
       <c r="C36">
-        <f>C35+B35*D$1</f>
+        <f t="shared" si="3"/>
         <v>2.7812838944369346E-2</v>
       </c>
       <c r="E36">
-        <f>EXP(-A36)</f>
+        <f t="shared" si="0"/>
         <v>3.3373269960326024E-2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-5.8207660913467407E-11</v>
       </c>
       <c r="I36">
-        <f>I35+H35*J$1</f>
+        <f t="shared" si="5"/>
         <v>5.8207660913467407E-11</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>D$1+A36</f>
+        <f t="shared" si="1"/>
         <v>3.5000000000000018</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.5031555049932409E-2</v>
       </c>
       <c r="C37">
-        <f>C36+B36*D$1</f>
+        <f t="shared" si="3"/>
         <v>2.5031555049932409E-2</v>
       </c>
       <c r="E37">
-        <f>EXP(-A37)</f>
+        <f t="shared" si="0"/>
         <v>3.0197383422318449E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-2.9103830456733704E-11</v>
       </c>
       <c r="I37">
-        <f>I36+H36*J$1</f>
+        <f t="shared" si="5"/>
         <v>2.9103830456733704E-11</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>D$1+A37</f>
+        <f t="shared" si="1"/>
         <v>3.6000000000000019</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.2528399544939168E-2</v>
       </c>
       <c r="C38">
-        <f>C37+B37*D$1</f>
+        <f t="shared" si="3"/>
         <v>2.2528399544939168E-2</v>
       </c>
       <c r="E38">
-        <f>EXP(-A38)</f>
+        <f t="shared" si="0"/>
         <v>2.732372244729251E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-1.4551915228366852E-11</v>
       </c>
       <c r="I38">
-        <f>I37+H37*J$1</f>
+        <f t="shared" si="5"/>
         <v>1.4551915228366852E-11</v>
       </c>
     </row>
